--- a/without-power-switch/U1_SMD/U1_元器件坐标.xlsx
+++ b/without-power-switch/U1_SMD/U1_元器件坐标.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\unified-daughterboard-with-power-switch\without-power-switch\U1_SMD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\unified-daughterboard\without-power-switch\U1_SMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2410A3FB-D1E4-4148-9525-5813FB8A86C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="6660" yWindow="2460" windowWidth="28470" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BIOI65BLE-bottom-pos" sheetId="1" r:id="rId1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="u1-all-pos" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="u1-all-pos" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="936" firstRow="2" sourceFile="D:\Projects\unified-daughterboard-with-power-switch\without-power-switch\gerber\u1-all-pos.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -45,39 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>值/型号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>X坐标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y坐标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴装面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>J1</t>
   </si>
@@ -122,14 +91,42 @@
   </si>
   <si>
     <t>5.1kΩ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designator</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Footprint</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +298,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -816,44 +821,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,7 +926,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="u1-all-pos" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="u1-all-pos" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1214,181 +1225,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="46" style="3" customWidth="1"/>
-    <col min="3" max="3" width="58.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="58.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="53.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13">
+        <v>-3.7</v>
+      </c>
+      <c r="F2" s="13">
+        <v>180</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="13">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13">
+        <v>-13.5</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>-9.6</v>
+      </c>
+      <c r="F4" s="13">
+        <v>270</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="E5" s="13">
+        <v>-9.6</v>
+      </c>
+      <c r="F5" s="13">
+        <v>90</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-3.7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>180</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-13.5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D6" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="E6" s="7">
         <v>-9.6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F6" s="7">
         <v>270</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>15.9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-9.6</v>
-      </c>
-      <c r="F5" s="1">
-        <v>90</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="E6" s="9">
-        <v>-9.6</v>
-      </c>
-      <c r="F6" s="9">
-        <v>270</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
